--- a/BOM/Phantom.BOM.xlsx
+++ b/BOM/Phantom.BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\RC Electronics Projects\Phantom\00.MAX.Reverse\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COREi72\Documents\GitHub\The-Phantom\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,12 +110,6 @@
     <t>D1, D2, D3</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2, C3</t>
-  </si>
-  <si>
     <t>100nf 10 63v Polyester Film Capacitor</t>
   </si>
   <si>
@@ -336,6 +330,12 @@
   </si>
   <si>
     <t>One obtained from 1541 Drive Board</t>
+  </si>
+  <si>
+    <t>C1, C3</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -782,7 +782,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -810,10 +810,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
@@ -838,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -868,10 +868,10 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
         <v>6522</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -888,10 +888,10 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J7">
         <v>6264</v>
@@ -902,16 +902,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J8">
         <v>6264</v>
@@ -922,16 +922,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J9">
         <v>5165</v>
@@ -942,16 +942,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J10">
         <v>6264</v>
@@ -962,16 +962,16 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J11">
         <v>4464</v>
@@ -982,16 +982,16 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J12">
         <v>5165</v>
@@ -1002,16 +1002,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J13">
         <v>6264</v>
@@ -1022,29 +1022,29 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1055,7 +1055,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1072,7 +1072,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1089,7 +1089,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1125,36 +1125,36 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1162,50 +1162,50 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1213,26 +1213,26 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1240,56 +1240,56 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1297,14 +1297,14 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -1323,7 +1323,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="5" t="s">
@@ -1344,69 +1344,69 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -1417,23 +1417,23 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -1444,7 +1444,7 @@
         <v>23</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="5" t="s">
@@ -1465,15 +1465,15 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D60" s="4">
         <v>4</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="61" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1489,18 +1489,18 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64">
